--- a/Test/MDM.IT.SoftwareChange/Activities/ApproveBPOwner.xlsx
+++ b/Test/MDM.IT.SoftwareChange/Activities/ApproveBPOwner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Projects\ConsoleApplication2 - копия\TestConsole\bin\Debug\Test\MDM.IT.SoftwareChange\Activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Projects\ConsoleApplication2 - копия\Test\MDM.IT.SoftwareChange\Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,13 +19,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenario!$A$1:$F$1</definedName>
+    <definedName name="Source_Attribute" localSheetId="2" hidden="1">Attribute!$A$1:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" sourceFile="D:\VS_Projects\ConsoleApplication2 - копия\Test\Source.xlsx" odcFile="C:\Users\NAGORSKY\Documents\Мои источники данных\Source Attribute$.odc" keepAlive="1" name="Source Attribute$" type="5" refreshedVersion="5" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=D:\VS_Projects\ConsoleApplication2 - копия\Test\Source.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="Attribute$" commandType="3"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>action</t>
   </si>
@@ -205,6 +214,9 @@
   </si>
   <si>
     <t>{BaseUrl}/Runtime/Runtime/Form/MyTasks/</t>
+  </si>
+  <si>
+    <t>jquery</t>
   </si>
 </sst>
 </file>
@@ -325,6 +337,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Source Attribute$" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" name="id" tableColumnId="1"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_Source_Attribute" displayName="Таблица_Source_Attribute" ref="A1:A8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:A8"/>
+  <tableColumns count="1">
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,14 +649,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="103.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
@@ -739,7 +771,7 @@
           <x14:formula1>
             <xm:f>Attribute!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D1048576 D3:D6</xm:sqref>
+          <xm:sqref>D3:D6 D8:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -758,7 +790,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,15 +936,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -950,8 +982,16 @@
         <v>47</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
